--- a/mbs-perturbation/mega/svm/nearmiss/mega-svm-default-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/svm/nearmiss/mega-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7999131944444444</v>
+        <v>0.6966145833333333</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="C3" t="n">
         <v>0.9787234042553191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.989247311827957</v>
+        <v>0.8141592920353982</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9968971631205673</v>
+        <v>0.8295656028368794</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9591836734693877</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9964539007092198</v>
+        <v>0.999113475177305</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9375</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9574468085106383</v>
+        <v>0.7901234567901234</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9773936170212766</v>
+        <v>0.9703014184397163</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6739804964539008</v>
+        <v>0.5715868794326241</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9423276182843402</v>
+        <v>0.82020202020202</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8165780141843971</v>
+        <v>0.6246453900709219</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8168604690893642</v>
+        <v>0.6592923829377796</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8889276743498817</v>
+        <v>0.8134363918439715</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/svm/nearmiss/mega-svm-default-nearmiss-results.xlsx
+++ b/mbs-perturbation/mega/svm/nearmiss/mega-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C2" t="n">
-        <v>0.375</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6966145833333333</v>
+        <v>0.46723044397463</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.696969696969697</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8141592920353982</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8295656028368794</v>
+        <v>0.638477801268499</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="D4" t="n">
-        <v>0.967032967032967</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999113475177305</v>
+        <v>0.9685517970401691</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7901234567901234</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9703014184397163</v>
+        <v>0.8068181818181818</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5715868794326241</v>
+        <v>0.8307193077339102</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.82020202020202</v>
+        <v>0.8444457173406652</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6246453900709219</v>
+        <v>0.6209302325581396</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6592923829377796</v>
+        <v>0.7057551756334718</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8134363918439715</v>
+        <v>0.742359506367078</v>
       </c>
     </row>
   </sheetData>
